--- a/assets/demo/excel/Phasierung_25.04.-29.04.22.xlsx
+++ b/assets/demo/excel/Phasierung_25.04.-29.04.22.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Philipp\Nextcloud\Berufsschule\projekte\SOL-Connect\assets\demo\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D437E916-91DD-4847-AD7C-14C22FF3CCB7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6F006E7A-139D-41B8-8670-A2DD21651ACC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2895" yWindow="2100" windowWidth="21600" windowHeight="12855" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -624,8 +624,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H58"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="D41" sqref="D41"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="H35" sqref="H35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -968,7 +968,7 @@
       <c r="C24" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="D24" s="21" t="s">
+      <c r="D24" s="7" t="s">
         <v>30</v>
       </c>
       <c r="E24" s="7" t="s">
@@ -984,7 +984,7 @@
       <c r="C25" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="D25" s="21" t="s">
+      <c r="D25" s="7" t="s">
         <v>24</v>
       </c>
       <c r="E25" s="8"/>
@@ -1002,7 +1002,7 @@
       <c r="C26" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="D26" s="21" t="s">
+      <c r="D26" s="7" t="s">
         <v>30</v>
       </c>
       <c r="E26" s="8" t="s">
@@ -1018,7 +1018,7 @@
       <c r="C27" s="12" t="s">
         <v>24</v>
       </c>
-      <c r="D27" s="21" t="s">
+      <c r="D27" s="7" t="s">
         <v>24</v>
       </c>
       <c r="E27" s="7"/>
@@ -1450,6 +1450,21 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Dokument" ma:contentTypeID="0x01010052520139A1D0684DAB2576B7194F8181" ma:contentTypeVersion="8" ma:contentTypeDescription="Ein neues Dokument erstellen." ma:contentTypeScope="" ma:versionID="4b22eb9d2c8b46049f07b993f702b190">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="0b6bbab0-9247-47c9-954d-aa88648b1b5c" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="49fb40ca859a896cb5d6a2d84521d5b7" ns2:_="">
     <xsd:import namespace="0b6bbab0-9247-47c9-954d-aa88648b1b5c"/>
@@ -1619,22 +1634,24 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2A31262B-2E06-477E-BFE3-6323BE996B28}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{21F9FDEB-1F20-4471-A72E-E36255447748}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{370454BE-458D-49B7-A8B1-7BB9C90D0E35}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -1650,21 +1667,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{21F9FDEB-1F20-4471-A72E-E36255447748}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2A31262B-2E06-477E-BFE3-6323BE996B28}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>